--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Registro de inpedimentos.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Registro de inpedimentos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -85,6 +85,39 @@
   </si>
   <si>
     <t>Constanza Alfaro Falta por accidente automovilistico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemas con el cliente </t>
+  </si>
+  <si>
+    <t>No saber la opinion del cliente para seguir por los sprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product owner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seda opcion de couminicion al cliente para poder serguir con los demas sprint </t>
+  </si>
+  <si>
+    <t>Se toma por decision del equipo, que se tendra que seguir con su realizacion normal, ademas de la opcion dada al cleiente y poder saber sus oponion, por ultimo se toma encuenta que cuando el tenga el tiempo se entregaran lo sprint.</t>
+  </si>
+  <si>
+    <t>Problema familiar urgente</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Dificulta con comunicaion con el cliente</t>
+  </si>
+  <si>
+    <t>Seda por hecho que el scrum master toma las responsabilodades del product owner hasta que vuelva con normalidada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricio Meza tiene problemas familiares con su madre por problemas urgentes  de salud, por lo que le da dias de ausentarse del proyecto. </t>
   </si>
 </sst>
 </file>
@@ -558,43 +591,87 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45587.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45601.0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45588.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
+        <v>45589.0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
